--- a/Curso Ingenieria del Software 2/ESTUDIANTES DE INGENIERIA DEL SOFTWARE 2.xlsx
+++ b/Curso Ingenieria del Software 2/ESTUDIANTES DE INGENIERIA DEL SOFTWARE 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Ingenieria del Software 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8AA832-4A1C-4287-90FC-E1D23F1FC61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA38D3-FFDC-4E38-8D14-4D15C79EC6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>2024-03</t>
   </si>
@@ -311,12 +311,6 @@
     <t>https://github.com/SDuque28/Software2.git</t>
   </si>
   <si>
-    <t>TALLER 2</t>
-  </si>
-  <si>
-    <t>TALLER 3</t>
-  </si>
-  <si>
     <t>https://github.com/LuisEduardo002/IngenieraSoftware2.git</t>
   </si>
   <si>
@@ -329,7 +323,22 @@
     <t>https://github.com/Marco-Sanint/IngenieriaDeSoftware2</t>
   </si>
   <si>
-    <t>TALLER 4</t>
+    <t>TALLER 2 SRP</t>
+  </si>
+  <si>
+    <t>TALLER 3 OCP</t>
+  </si>
+  <si>
+    <t>TALLER 4 OCP</t>
+  </si>
+  <si>
+    <t>TALLER 5 LSP</t>
+  </si>
+  <si>
+    <t>TALLER 6 ISP</t>
+  </si>
+  <si>
+    <t>TALLER 7 DIP</t>
   </si>
 </sst>
 </file>
@@ -433,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,7 +463,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -736,27 +744,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="H2" sqref="H2:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="47.5546875" customWidth="1"/>
+    <col min="8" max="8" width="40.88671875" customWidth="1"/>
+    <col min="9" max="9" width="65.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -788,16 +795,25 @@
         <v>66</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -837,8 +853,15 @@
       <c r="M2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -864,7 +887,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
@@ -878,8 +901,15 @@
       <c r="M3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -905,7 +935,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
@@ -919,8 +949,15 @@
       <c r="M4" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -960,8 +997,15 @@
       <c r="M5" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1001,8 +1045,15 @@
       <c r="M6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>15</v>
       </c>
@@ -1042,8 +1093,15 @@
       <c r="M7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1083,8 +1141,15 @@
       <c r="M8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>23</v>
       </c>
@@ -1118,8 +1183,15 @@
       <c r="M9" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -1159,8 +1231,15 @@
       <c r="M10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1200,8 +1279,15 @@
       <c r="M11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1241,8 +1327,15 @@
       <c r="M12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>17</v>
       </c>
@@ -1282,8 +1375,15 @@
       <c r="M13" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>18</v>
       </c>
@@ -1323,8 +1423,15 @@
       <c r="M14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -1358,8 +1465,15 @@
       <c r="M15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -1399,8 +1513,15 @@
       <c r="M16" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>9</v>
       </c>
@@ -1426,7 +1547,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J17" s="7">
         <v>1</v>
@@ -1440,8 +1561,15 @@
       <c r="M17" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -1481,8 +1609,15 @@
       <c r="M18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>24</v>
       </c>
@@ -1516,8 +1651,15 @@
       <c r="M19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -1557,8 +1699,15 @@
       <c r="M20" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>26</v>
       </c>
@@ -1592,8 +1741,15 @@
       <c r="M21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>12</v>
       </c>
@@ -1633,8 +1789,15 @@
       <c r="M22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -1674,8 +1837,15 @@
       <c r="M23" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1701,7 +1871,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J24" s="7">
         <v>1</v>
@@ -1715,8 +1885,15 @@
       <c r="M24" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -1753,11 +1930,18 @@
       <c r="L25" s="3">
         <v>-1</v>
       </c>
-      <c r="M25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1788,11 +1972,18 @@
       <c r="L26" s="3">
         <v>1</v>
       </c>
-      <c r="M26" s="10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>14</v>
       </c>
@@ -1829,11 +2020,18 @@
       <c r="L27" s="3">
         <v>1</v>
       </c>
-      <c r="M27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -1870,17 +2068,19 @@
       <c r="L28" s="3">
         <v>-1</v>
       </c>
-      <c r="M28" s="10">
-        <v>1</v>
-      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I28" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="GARCIA GIL SEBASTIAN"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I28">
       <sortCondition descending="1" ref="G1:G28"/>
     </sortState>

--- a/Curso Ingenieria del Software 2/ESTUDIANTES DE INGENIERIA DEL SOFTWARE 2.xlsx
+++ b/Curso Ingenieria del Software 2/ESTUDIANTES DE INGENIERIA DEL SOFTWARE 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Ingenieria del Software 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA38D3-FFDC-4E38-8D14-4D15C79EC6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7865E428-99A2-494F-8BA2-DDE7CD1C182A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <t>https://github.com/juanmash-19/Talleres_INSW_2.git</t>
   </si>
   <si>
-    <t>https://github.com/Marco-Sanint/IngenieriaDeSoftware2</t>
-  </si>
-  <si>
     <t>TALLER 2 SRP</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>TALLER 7 DIP</t>
+  </si>
+  <si>
+    <t>https://github.com/Marco-Sanint/IngenieriaDelSoftware2</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,22 +795,22 @@
         <v>66</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -935,26 +935,16 @@
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="8">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>-1</v>
-      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">

--- a/Curso Ingenieria del Software 2/ESTUDIANTES DE INGENIERIA DEL SOFTWARE 2.xlsx
+++ b/Curso Ingenieria del Software 2/ESTUDIANTES DE INGENIERIA DEL SOFTWARE 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Ingenieria del Software 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7865E428-99A2-494F-8BA2-DDE7CD1C182A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836F7796-A5C4-4D4F-BA6C-6AE7FF9DAD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t>2024-03</t>
   </si>
@@ -339,6 +339,30 @@
   </si>
   <si>
     <t>https://github.com/Marco-Sanint/IngenieriaDelSoftware2</t>
+  </si>
+  <si>
+    <t>PARCIAL 1</t>
+  </si>
+  <si>
+    <t>NOTA CORTE 1</t>
+  </si>
+  <si>
+    <t>PROYECTO</t>
+  </si>
+  <si>
+    <t>CONCIERTOSYA</t>
+  </si>
+  <si>
+    <t>VIAJAYA</t>
+  </si>
+  <si>
+    <t>COMPRAYA</t>
+  </si>
+  <si>
+    <t>FACTURAYA</t>
+  </si>
+  <si>
+    <t>DOCTORYA</t>
   </si>
 </sst>
 </file>
@@ -744,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,12 +782,14 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.88671875" customWidth="1"/>
     <col min="7" max="7" width="47.5546875" customWidth="1"/>
-    <col min="8" max="8" width="40.88671875" customWidth="1"/>
-    <col min="9" max="9" width="65.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="9" max="9" width="52.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -792,28 +818,37 @@
         <v>55</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -841,27 +876,39 @@
       <c r="I2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="3">
-        <v>-1</v>
+      <c r="J2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="8">
+        <v>-0.1</v>
       </c>
       <c r="M2" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="N2" s="3">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="O2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="S2" s="3">
+        <f>SUM(K2:R2)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -889,27 +936,39 @@
       <c r="I3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1</v>
+      <c r="J3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.1</v>
       </c>
       <c r="M3" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N3" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S28" si="0">SUM(K3:R3)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -937,17 +996,37 @@
       <c r="I4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J4" s="4"/>
+      <c r="K4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -975,27 +1054,39 @@
       <c r="I5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>-1</v>
+      <c r="J5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.1</v>
       </c>
       <c r="M5" s="3">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="N5" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="O5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1023,27 +1114,39 @@
       <c r="I6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>-1</v>
+      <c r="J6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>-0.1</v>
       </c>
       <c r="M6" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="N6" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>15</v>
       </c>
@@ -1071,27 +1174,39 @@
       <c r="I7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>-1</v>
+      <c r="J7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.1</v>
       </c>
       <c r="M7" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="N7" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1119,27 +1234,39 @@
       <c r="I8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
+      <c r="J8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>-0.1</v>
       </c>
       <c r="M8" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>23</v>
       </c>
@@ -1161,27 +1288,39 @@
       <c r="I9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="7">
-        <v>1</v>
+      <c r="J9" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.1</v>
       </c>
       <c r="M9" s="3">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="N9" s="3">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="O9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -1209,27 +1348,39 @@
       <c r="I10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="7">
-        <v>1</v>
+      <c r="J10" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.1</v>
       </c>
       <c r="M10" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="N10" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1257,27 +1408,39 @@
       <c r="I11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="7">
-        <v>1</v>
+      <c r="J11" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="K11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.1</v>
       </c>
       <c r="M11" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="N11" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1305,27 +1468,39 @@
       <c r="I12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="7">
-        <v>1</v>
+      <c r="J12" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="K12" s="7">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.1</v>
       </c>
       <c r="M12" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N12" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>17</v>
       </c>
@@ -1353,27 +1528,37 @@
       <c r="I13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="7">
-        <v>1</v>
-      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="3">
-        <v>-1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>-0.1</v>
       </c>
       <c r="M13" s="3">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="N13" s="3">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="O13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>18</v>
       </c>
@@ -1401,27 +1586,39 @@
       <c r="I14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="7">
-        <v>1</v>
+      <c r="J14" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.1</v>
       </c>
       <c r="M14" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N14" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -1443,27 +1640,39 @@
       <c r="I15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="7">
-        <v>1</v>
+      <c r="J15" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="K15" s="7">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.1</v>
       </c>
       <c r="M15" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="N15" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -1491,27 +1700,39 @@
       <c r="I16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="7">
-        <v>1</v>
+      <c r="J16" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="K16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3">
-        <v>-1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.1</v>
       </c>
       <c r="M16" s="3">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="N16" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="O16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>9</v>
       </c>
@@ -1539,27 +1760,39 @@
       <c r="I17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="7">
-        <v>1</v>
+      <c r="J17" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="K17" s="7">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>-1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.1</v>
       </c>
       <c r="M17" s="3">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="N17" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="O17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -1587,27 +1820,39 @@
       <c r="I18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="7">
-        <v>1</v>
+      <c r="J18" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.1</v>
       </c>
       <c r="M18" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="N18" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>24</v>
       </c>
@@ -1629,27 +1874,39 @@
       <c r="I19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="7">
-        <v>1</v>
+      <c r="J19" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="K19" s="7">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.1</v>
       </c>
       <c r="M19" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N19" s="3">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="O19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -1677,27 +1934,39 @@
       <c r="I20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="7">
-        <v>1</v>
+      <c r="J20" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="K20" s="7">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.1</v>
       </c>
       <c r="M20" s="3">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="N20" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="O20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>26</v>
       </c>
@@ -1719,27 +1988,39 @@
       <c r="I21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="7">
-        <v>1</v>
+      <c r="J21" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="K21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.1</v>
       </c>
       <c r="M21" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N21" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O21" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>12</v>
       </c>
@@ -1767,27 +2048,39 @@
       <c r="I22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="7">
-        <v>1</v>
+      <c r="J22" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="K22" s="7">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
-        <v>-1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.1</v>
       </c>
       <c r="M22" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="N22" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O22" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R22" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -1815,27 +2108,37 @@
       <c r="I23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="7">
-        <v>1</v>
-      </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="7">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.1</v>
       </c>
       <c r="M23" s="3">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="N23" s="3">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="O23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1863,27 +2166,39 @@
       <c r="I24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="7">
-        <v>1</v>
+      <c r="J24" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="K24" s="7">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.1</v>
       </c>
       <c r="M24" s="3">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="N24" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="O24" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -1911,27 +2226,39 @@
       <c r="I25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J25" s="3">
-        <v>1</v>
+      <c r="J25" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="K25" s="3">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="3">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="M25" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N25" s="3">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="O25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1953,27 +2280,39 @@
       <c r="I26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="3">
-        <v>1</v>
+      <c r="J26" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="K26" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M26" s="3">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="N26" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="O26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>14</v>
       </c>
@@ -2001,27 +2340,39 @@
       <c r="I27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="3">
-        <v>1</v>
+      <c r="J27" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="K27" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M27" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N27" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -2049,25 +2400,37 @@
       <c r="I28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="3">
-        <v>1</v>
+      <c r="J28" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="K28" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L28" s="3">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="M28" s="3">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="N28" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P28" s="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I28" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Curso Ingenieria del Software 2/ESTUDIANTES DE INGENIERIA DEL SOFTWARE 2.xlsx
+++ b/Curso Ingenieria del Software 2/ESTUDIANTES DE INGENIERIA DEL SOFTWARE 2.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Ingenieria del Software 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836F7796-A5C4-4D4F-BA6C-6AE7FF9DAD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C7AF6A-6EAC-4F61-92EA-BA7A50CF9C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CORTE1" sheetId="1" r:id="rId1"/>
+    <sheet name="CORTE2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORTE1!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CORTE2!$A$1:$I$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="115">
   <si>
     <t>2024-03</t>
   </si>
@@ -363,6 +365,27 @@
   </si>
   <si>
     <t>DOCTORYA</t>
+  </si>
+  <si>
+    <t>TALLER 9</t>
+  </si>
+  <si>
+    <t>TALLER 10</t>
+  </si>
+  <si>
+    <t>TALLER 11</t>
+  </si>
+  <si>
+    <t>TALLER 12</t>
+  </si>
+  <si>
+    <t>TALLER 13</t>
+  </si>
+  <si>
+    <t>Revision 10 de octubre</t>
+  </si>
+  <si>
+    <t>Talleres 9, 10 , 11, 12 vencidos, revision 10 de octubre</t>
   </si>
 </sst>
 </file>
@@ -770,26 +793,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="47.5546875" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
-    <col min="9" max="9" width="52.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="52.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -848,7 +871,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -908,7 +931,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -968,7 +991,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -996,7 +1019,9 @@
       <c r="I4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="K4" s="7">
         <v>0.1</v>
       </c>
@@ -1026,7 +1051,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1086,7 +1111,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1146,7 +1171,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>15</v>
       </c>
@@ -1206,7 +1231,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1266,7 +1291,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>23</v>
       </c>
@@ -1320,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -1380,7 +1405,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1440,7 +1465,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1500,7 +1525,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>17</v>
       </c>
@@ -1528,7 +1553,9 @@
       <c r="I13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="K13" s="7">
         <v>0.1</v>
       </c>
@@ -1558,7 +1585,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>18</v>
       </c>
@@ -1618,7 +1645,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -1672,7 +1699,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -1732,7 +1759,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9</v>
       </c>
@@ -1792,7 +1819,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -1852,7 +1879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>24</v>
       </c>
@@ -1906,7 +1933,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -1966,7 +1993,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>26</v>
       </c>
@@ -2020,7 +2047,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>12</v>
       </c>
@@ -2080,7 +2107,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2108,7 +2135,9 @@
       <c r="I23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="K23" s="7">
         <v>0.1</v>
       </c>
@@ -2138,7 +2167,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2198,7 +2227,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -2258,7 +2287,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2312,7 +2341,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>14</v>
       </c>
@@ -2372,7 +2401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -2476,4 +2505,1357 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B6602-33F8-4391-B3CC-9A632E4E6CB1}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>182</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1007227464</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1821800039</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1193542709</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10202050012</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1089930094</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10202200113</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1054542365</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10202450307</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1055750413</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10202100081</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1054544978</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10302300074</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1004012527</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10202150099</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1054861662</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10302400061</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1073599941</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10202250162</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1054398749</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10202250154</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1054860717</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10302400072</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1055751174</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10302400060</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1054398870</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10302400076</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1118287601</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10202200141</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1007227411</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10202400293</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1083864443</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10202250161</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1002609206</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10202200145</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1054860227</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10302400069</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1007235072</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10302450089</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1111332299</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10202250159</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1055753352</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10202400282</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1054861562</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10302400058</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I28">
+      <sortCondition descending="1" ref="G1:G28"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="I16" r:id="rId1" xr:uid="{68A24AC8-E4DE-4E33-8F52-BE7B9E15240A}"/>
+    <hyperlink ref="I10" r:id="rId2" xr:uid="{A24A90D3-AED6-4C5F-86E7-AF408C4AD38A}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{0E8B0A56-388A-4A24-AA14-50274CEBFA29}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{88547BEA-793C-4890-936B-F8983D5C4BC0}"/>
+    <hyperlink ref="I24" r:id="rId5" xr:uid="{60C12BB3-ABF8-4C76-8A2D-06CC7693D93D}"/>
+    <hyperlink ref="I5" r:id="rId6" xr:uid="{B9693167-EE62-4C7A-AA47-433D36F8BB84}"/>
+    <hyperlink ref="I2" r:id="rId7" xr:uid="{C82EC81F-EEB6-4A0D-BE53-009D05F95758}"/>
+    <hyperlink ref="I27" r:id="rId8" xr:uid="{C7AA4717-C5B2-4093-B425-6FB2BA1AC323}"/>
+    <hyperlink ref="I13" r:id="rId9" xr:uid="{995B196B-6D83-4878-B1AA-93010E5E7131}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{BAF4CC80-6C15-4553-89E0-BA5BA5FDD88F}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{1189A7D4-2C9C-4D9B-B5E8-261D7F5D4BA8}"/>
+    <hyperlink ref="I18" r:id="rId12" xr:uid="{C2C68E78-E300-47D7-9149-5DA04DBD647D}"/>
+    <hyperlink ref="I23" r:id="rId13" xr:uid="{12B62491-A50B-4C71-922A-41D2F56EAA0F}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{BF58FDB9-F3DF-455D-909C-52BF48CAB2A2}"/>
+    <hyperlink ref="H9" r:id="rId15" xr:uid="{5780D4CF-4C12-41A4-8D90-CD32AB0BB2D5}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{A7C1F670-2D97-47EC-8358-01CC2DBE734C}"/>
+    <hyperlink ref="I28" r:id="rId17" xr:uid="{DC501914-B7B6-4821-8B1E-EEC6F8AD91E9}"/>
+    <hyperlink ref="I11" r:id="rId18" xr:uid="{E3B926BF-9AFD-4C03-AA27-52F30AE4A787}"/>
+    <hyperlink ref="I3" r:id="rId19" xr:uid="{B020A0BC-8B50-4A39-821A-60A40C9C258D}"/>
+    <hyperlink ref="I20" r:id="rId20" xr:uid="{6895BD3D-60E9-48F3-8D51-C9122E8344D8}"/>
+    <hyperlink ref="I25" r:id="rId21" xr:uid="{D48E99D7-9453-40DE-99F4-E72345023543}"/>
+    <hyperlink ref="I6" r:id="rId22" xr:uid="{1358CEF8-491C-499B-A3ED-015E96F85A27}"/>
+    <hyperlink ref="H19" r:id="rId23" xr:uid="{4BFE9D41-4351-429E-9BB0-A338F2118F9E}"/>
+    <hyperlink ref="I19" r:id="rId24" xr:uid="{715F2618-98EC-4A13-8A2B-0D9D40A6E83B}"/>
+    <hyperlink ref="I15" r:id="rId25" xr:uid="{11B31D01-5DC7-4CC2-A3E3-27E56ED4277F}"/>
+    <hyperlink ref="H15" r:id="rId26" xr:uid="{533E9446-09C3-46F1-814C-7EC07366B37D}"/>
+    <hyperlink ref="I26" r:id="rId27" xr:uid="{E64A5407-810C-4435-9CE4-F59AC5CCD2F9}"/>
+    <hyperlink ref="H26" r:id="rId28" xr:uid="{233AAA9D-B695-426A-96CF-EF7ED369DB9B}"/>
+    <hyperlink ref="H21" r:id="rId29" xr:uid="{790E2DDF-E3E1-4461-9CDB-2B10E2D37106}"/>
+    <hyperlink ref="I21" r:id="rId30" xr:uid="{46C542C3-383C-4718-9399-1625534C2B6A}"/>
+    <hyperlink ref="I4" r:id="rId31" xr:uid="{5956A83D-E3FA-479D-8D75-2FA7841873D7}"/>
+    <hyperlink ref="I22" r:id="rId32" xr:uid="{8FCCA820-EDCC-4517-AAD9-2FDA8E528B94}"/>
+    <hyperlink ref="I17" r:id="rId33" xr:uid="{413D4503-CD77-4EDF-8532-43953DDB6166}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
+</worksheet>
 </file>
--- a/Curso Ingenieria del Software 2/ESTUDIANTES DE INGENIERIA DEL SOFTWARE 2.xlsx
+++ b/Curso Ingenieria del Software 2/ESTUDIANTES DE INGENIERIA DEL SOFTWARE 2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Ingenieria del Software 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C7AF6A-6EAC-4F61-92EA-BA7A50CF9C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE30855C-FC59-43AE-94AC-0E121BFA04B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CORTE1" sheetId="1" r:id="rId1"/>
     <sheet name="CORTE2" sheetId="2" r:id="rId2"/>
+    <sheet name="CORTE3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORTE1!$A$1:$I$28</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="134">
   <si>
     <t>2024-03</t>
   </si>
@@ -386,6 +387,63 @@
   </si>
   <si>
     <t>Talleres 9, 10 , 11, 12 vencidos, revision 10 de octubre</t>
+  </si>
+  <si>
+    <t>TALLER 14</t>
+  </si>
+  <si>
+    <t>PARCIAL 2</t>
+  </si>
+  <si>
+    <t>NOTA CORTE 2</t>
+  </si>
+  <si>
+    <t>Pendiente de parcial 2</t>
+  </si>
+  <si>
+    <t>FRONTEND</t>
+  </si>
+  <si>
+    <t>EQUIPO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>PRESENTACION PROYECTO</t>
+  </si>
+  <si>
+    <t>4 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>PARCIAL CORTE 3</t>
+  </si>
+  <si>
+    <t>2 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>REVISION NOTA CORTE 3</t>
+  </si>
+  <si>
+    <t>9 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>ULTIMO DIA TALLERES</t>
+  </si>
+  <si>
+    <t>11 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>PARCIAL</t>
+  </si>
+  <si>
+    <t>TALLERES</t>
+  </si>
+  <si>
+    <t>EVENTO IA</t>
   </si>
 </sst>
 </file>
@@ -430,7 +488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +507,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -484,12 +548,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -510,6 +596,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -794,7 +897,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G1" sqref="G1:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B6602-33F8-4391-B3CC-9A632E4E6CB1}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="G9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,9 +2632,11 @@
     <col min="12" max="12" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2574,8 +2679,17 @@
       <c r="N1" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2618,11 +2732,21 @@
       <c r="N2" s="3">
         <v>-0.1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(J2:P2)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2660,16 +2784,26 @@
         <v>0.1</v>
       </c>
       <c r="M3" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N3" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="O3" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q28" si="0">SUM(J3:P3)</f>
+        <v>3.1</v>
+      </c>
+      <c r="R3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2698,25 +2832,35 @@
         <v>99</v>
       </c>
       <c r="J4" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="K4" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L4" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M4" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N4" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="O4" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="R4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2759,11 +2903,21 @@
       <c r="N5" s="3">
         <v>0.1</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2801,41 +2955,51 @@
         <v>-0.1</v>
       </c>
       <c r="M6" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N6" s="3">
         <v>0.1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="R6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="14">
         <v>1030</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
         <v>1054544978</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="14">
         <v>10302300074</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="15" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="3">
@@ -2848,16 +3012,26 @@
         <v>0.1</v>
       </c>
       <c r="M7" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="3">
         <v>0.1</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="R7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2895,16 +3069,26 @@
         <v>0.1</v>
       </c>
       <c r="M8" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N8" s="3">
         <v>0.1</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="R8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>23</v>
       </c>
@@ -2933,19 +3117,27 @@
         <v>0.1</v>
       </c>
       <c r="L9" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M9" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N9" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -2977,22 +3169,32 @@
         <v>0.1</v>
       </c>
       <c r="K10" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L10" s="3">
         <v>0.1</v>
       </c>
       <c r="M10" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N10" s="3">
         <v>0.1</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="R10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -3024,22 +3226,32 @@
         <v>0.1</v>
       </c>
       <c r="K11" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L11" s="3">
         <v>0.1</v>
       </c>
       <c r="M11" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N11" s="3">
         <v>0.1</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="R11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -3071,69 +3283,89 @@
         <v>0.1</v>
       </c>
       <c r="K12" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L12" s="3">
         <v>0.1</v>
       </c>
       <c r="M12" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N12" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="O12" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="R12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="10">
         <v>1030</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
         <v>1054860717</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="10">
         <v>10302400072</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="J13" s="11">
+        <v>-0.1</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="R13" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>18</v>
       </c>
@@ -3176,11 +3408,21 @@
       <c r="N14" s="3">
         <v>0.1</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="R14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -3206,10 +3448,10 @@
         <v>0.1</v>
       </c>
       <c r="K15" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L15" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M15" s="3">
         <v>0.1</v>
@@ -3217,11 +3459,21 @@
       <c r="N15" s="3">
         <v>0.1</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="R15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -3264,11 +3516,21 @@
       <c r="N16" s="3">
         <v>0.1</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9</v>
       </c>
@@ -3297,7 +3559,7 @@
         <v>90</v>
       </c>
       <c r="J17" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="K17" s="3">
         <v>0.1</v>
@@ -3306,16 +3568,26 @@
         <v>0.1</v>
       </c>
       <c r="M17" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N17" s="3">
         <v>0.1</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="R17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -3347,22 +3619,32 @@
         <v>0.1</v>
       </c>
       <c r="K18" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="3">
         <v>0.1</v>
       </c>
       <c r="M18" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="3">
         <v>0.1</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="R18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>24</v>
       </c>
@@ -3388,22 +3670,32 @@
         <v>0.1</v>
       </c>
       <c r="K19" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M19" s="3">
         <v>-0.1</v>
       </c>
       <c r="N19" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="O19" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="R19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -3425,7 +3717,7 @@
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -3446,11 +3738,21 @@
       <c r="N20" s="3">
         <v>0.1</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>26</v>
       </c>
@@ -3476,22 +3778,32 @@
         <v>0.1</v>
       </c>
       <c r="K21" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M21" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N21" s="3">
         <v>0.1</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="R21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>12</v>
       </c>
@@ -3529,95 +3841,115 @@
         <v>0.1</v>
       </c>
       <c r="M22" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N22" s="3">
         <v>0.1</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="R22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="10">
         <v>1030</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
         <v>1054860227</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="10">
         <v>10302400069</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="J23" s="11">
+        <v>-0.1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="P23" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="Q23" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="R23" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="14">
         <v>1030</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
         <v>1007235072</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="14">
         <v>10302450089</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="15" t="s">
         <v>91</v>
       </c>
       <c r="J24" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="K24" s="3">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>-0.1</v>
@@ -3628,11 +3960,21 @@
       <c r="N24" s="3">
         <v>-0.1</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="R24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -3670,57 +4012,77 @@
         <v>0.1</v>
       </c>
       <c r="M25" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N25" s="3">
         <v>0.1</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="R25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="15" t="s">
         <v>83</v>
       </c>
       <c r="J26" s="3">
         <v>0.1</v>
       </c>
       <c r="K26" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M26" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N26" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="O26" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="R26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>14</v>
       </c>
@@ -3749,25 +4111,35 @@
         <v>60</v>
       </c>
       <c r="J27" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="K27" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M27" s="3">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N27" s="3">
         <v>0.1</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="R27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -3810,7 +4182,17 @@
       <c r="N28" s="3">
         <v>0.1</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="R28" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3854,8 +4236,967 @@
     <hyperlink ref="I4" r:id="rId31" xr:uid="{5956A83D-E3FA-479D-8D75-2FA7841873D7}"/>
     <hyperlink ref="I22" r:id="rId32" xr:uid="{8FCCA820-EDCC-4517-AAD9-2FDA8E528B94}"/>
     <hyperlink ref="I17" r:id="rId33" xr:uid="{413D4503-CD77-4EDF-8532-43953DDB6166}"/>
+    <hyperlink ref="H20" r:id="rId34" xr:uid="{9451293F-7D1F-4120-ABE9-B9D58ED04765}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98C718B-098D-49AE-BDA5-B5764579638E}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3">
+        <v>5</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{257F9207-7DD1-4F13-805A-B13A9CD2672F}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{2A142217-79F1-4C2B-9A49-FDB39B34B843}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{C4B398AD-960C-4FC5-AD85-28B213CCC358}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{DF08C2FF-6CBA-48DC-9D1F-FF8E00948D44}"/>
+    <hyperlink ref="C24" r:id="rId5" xr:uid="{F86679E8-89FB-416F-B26C-AD8958971EB6}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{F22A7969-1109-49F6-8E00-D57F1BECE673}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{1A367F88-20B6-4AAA-A9C0-D0A64487E631}"/>
+    <hyperlink ref="C27" r:id="rId8" xr:uid="{2A4277D2-E806-4BCE-91DF-BD3567613B60}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{3CD4E11C-1FE9-4C54-A0D8-A9BEF7BCEB88}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{6124B2E1-2D11-4AD6-8B73-8066A33B7308}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{5860D856-2B1C-404F-934D-62C883074B53}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{52DBB1BD-CDE8-4809-ABA7-B48218DD339C}"/>
+    <hyperlink ref="C23" r:id="rId13" xr:uid="{29E26934-9D3B-469A-952B-5C209477854A}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{E46A3E2B-B3D3-48CD-9D8B-FFEF9048B5B3}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{A3985BDC-C6B7-4730-90F5-173851F95D13}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{BCA61668-A3B5-441C-8602-2264656A326D}"/>
+    <hyperlink ref="C28" r:id="rId17" xr:uid="{835CDAA1-7C2E-4980-9FBF-346946CCEF8A}"/>
+    <hyperlink ref="C11" r:id="rId18" xr:uid="{44C7F905-0944-466E-8C28-360EA5563506}"/>
+    <hyperlink ref="C3" r:id="rId19" xr:uid="{F14678D6-997C-4FF1-8FF1-4DD3EE3346AE}"/>
+    <hyperlink ref="C20" r:id="rId20" xr:uid="{CD033B0B-CA2B-4EDF-8F5A-12EACA179143}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{AE7379C4-15E7-4496-B288-4C89B12574C6}"/>
+    <hyperlink ref="C6" r:id="rId22" xr:uid="{FD6CD48B-271A-4CAE-B51A-32C9A038780D}"/>
+    <hyperlink ref="B19" r:id="rId23" xr:uid="{9449A7D1-290D-4D57-B2FD-BBFF7CDAD6BC}"/>
+    <hyperlink ref="C19" r:id="rId24" xr:uid="{189E5A88-CAB4-41F3-9817-C07D86032B2B}"/>
+    <hyperlink ref="C15" r:id="rId25" xr:uid="{ADBE031A-C2D1-4111-9C07-8E30B34D65AE}"/>
+    <hyperlink ref="B15" r:id="rId26" xr:uid="{6E210FC8-7CDE-4280-A39B-E03CA03CE057}"/>
+    <hyperlink ref="C26" r:id="rId27" xr:uid="{B325EEEB-8258-4DDC-ADEF-0D4B9A4B1A66}"/>
+    <hyperlink ref="B26" r:id="rId28" xr:uid="{7A58A2D9-45ED-4863-A764-ED447199C51F}"/>
+    <hyperlink ref="B21" r:id="rId29" xr:uid="{71B6814B-E744-4CE9-95C5-256847A2A423}"/>
+    <hyperlink ref="C21" r:id="rId30" xr:uid="{729B8E3A-513F-42F4-99F5-8135EA1E1460}"/>
+    <hyperlink ref="C4" r:id="rId31" xr:uid="{1BC5A9E7-8C8C-41D8-8891-7DB008F65BAC}"/>
+    <hyperlink ref="C22" r:id="rId32" xr:uid="{7CA1D3F3-6CAB-4383-A3B5-E0B614C4B3C7}"/>
+    <hyperlink ref="C17" r:id="rId33" xr:uid="{140B8A06-4D91-4875-8755-5DADF3BF0E22}"/>
+    <hyperlink ref="B8" r:id="rId34" xr:uid="{B616D540-BB1B-4794-BF76-B8E9894D2FA5}"/>
+    <hyperlink ref="B10" r:id="rId35" xr:uid="{D8D2BB09-9266-4809-8E70-772506593807}"/>
+    <hyperlink ref="B24" r:id="rId36" xr:uid="{0A538F93-A094-41FD-9781-FB7EAC39A715}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>